--- a/data/trans_orig/IP21-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP21-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BE1AF89-C0CA-4AC4-82D9-56D940DAEEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB4AFDF5-CD59-4977-B8D6-86330AE56149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{838FF889-22A7-4D9A-BB2C-32CDBA141720}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{3B1CE1CF-3129-44BD-9CB6-5340F2710D2C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,12 +68,129 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>95,41%</t>
   </si>
   <si>
@@ -101,9 +218,6 @@
     <t>96,32%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>4,59%</t>
   </si>
   <si>
@@ -131,64 +245,61 @@
     <t>6,98%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -248,117 +359,6 @@
     <t>4,92%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
     <t>93,84%</t>
   </si>
   <si>
@@ -410,6 +410,78 @@
     <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,76%)</t>
   </si>
   <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
     <t>97,03%</t>
   </si>
   <si>
@@ -464,46 +536,58 @@
     <t>5,61%</t>
   </si>
   <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
   </si>
   <si>
     <t>95,22%</t>
@@ -560,90 +644,6 @@
     <t>6,38%</t>
   </si>
   <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
     <t>95,57%</t>
   </si>
   <si>
@@ -695,6 +695,78 @@
     <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2015 (Tasa respuesta: 99,91%)</t>
   </si>
   <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
     <t>97,33%</t>
   </si>
   <si>
@@ -731,60 +803,63 @@
     <t>5,07%</t>
   </si>
   <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
   </si>
   <si>
     <t>97,57%</t>
   </si>
   <si>
-    <t>95,26%</t>
-  </si>
-  <si>
     <t>98,96%</t>
   </si>
   <si>
@@ -812,9 +887,6 @@
     <t>1,04%</t>
   </si>
   <si>
-    <t>4,74%</t>
-  </si>
-  <si>
     <t>2,5%</t>
   </si>
   <si>
@@ -833,78 +905,6 @@
     <t>4,07%</t>
   </si>
   <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
     <t>97,22%</t>
   </si>
   <si>
@@ -956,6 +956,60 @@
     <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
     <t>98,19%</t>
   </si>
   <si>
@@ -998,40 +1052,46 @@
     <t>0,66%</t>
   </si>
   <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
   </si>
   <si>
     <t>99,04%</t>
@@ -1062,66 +1122,6 @@
   </si>
   <si>
     <t>2,79%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
   </si>
   <si>
     <t>98,38%</t>
@@ -1567,7 +1567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF77E508-9020-4EFF-822C-BEADFBD9F0F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C0B65A0-B8A7-42EA-91E2-54441F305058}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1685,10 +1685,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>307</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7">
-        <v>202403</v>
+        <v>22171</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1700,10 +1700,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>294</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7">
-        <v>184056</v>
+        <v>22724</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1715,10 +1715,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>601</v>
+        <v>58</v>
       </c>
       <c r="N4" s="7">
-        <v>386459</v>
+        <v>44895</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1736,10 +1736,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>9739</v>
+        <v>3273</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1751,10 +1751,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>11107</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1766,10 +1766,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="N5" s="7">
-        <v>20846</v>
+        <v>3273</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1787,54 +1787,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>212142</v>
+        <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H6" s="7">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="I6" s="7">
-        <v>195163</v>
+        <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M6" s="7">
-        <v>634</v>
+        <v>62</v>
       </c>
       <c r="N6" s="7">
-        <v>407305</v>
+        <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1846,13 +1846,13 @@
         <v>125638</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>168</v>
@@ -1861,13 +1861,13 @@
         <v>112142</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>358</v>
@@ -1876,13 +1876,13 @@
         <v>237780</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1897,13 +1897,13 @@
         <v>1995</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -1912,13 +1912,13 @@
         <v>3860</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -1927,13 +1927,13 @@
         <v>5855</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1948,13 +1948,13 @@
         <v>127633</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H9" s="7">
         <v>174</v>
@@ -1963,13 +1963,13 @@
         <v>116002</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M9" s="7">
         <v>367</v>
@@ -1978,66 +1978,66 @@
         <v>243635</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="D10" s="7">
-        <v>197053</v>
+        <v>202403</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>294</v>
+      </c>
+      <c r="I10" s="7">
+        <v>184056</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>269</v>
-      </c>
-      <c r="I10" s="7">
-        <v>205577</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>601</v>
+      </c>
+      <c r="N10" s="7">
+        <v>386459</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="7">
-        <v>559</v>
-      </c>
-      <c r="N10" s="7">
-        <v>402629</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2046,49 +2046,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="7">
-        <v>10771</v>
+        <v>9739</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>18</v>
+      </c>
+      <c r="I11" s="7">
+        <v>11107</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>5</v>
-      </c>
-      <c r="I11" s="7">
-        <v>3738</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>33</v>
+      </c>
+      <c r="N11" s="7">
+        <v>20846</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="7">
-        <v>21</v>
-      </c>
-      <c r="N11" s="7">
-        <v>14510</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2097,93 +2097,93 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="D12" s="7">
-        <v>207824</v>
+        <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H12" s="7">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="I12" s="7">
-        <v>209315</v>
+        <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M12" s="7">
-        <v>580</v>
+        <v>634</v>
       </c>
       <c r="N12" s="7">
-        <v>417139</v>
+        <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>29</v>
+        <v>221</v>
       </c>
       <c r="D13" s="7">
-        <v>22171</v>
+        <v>142282</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>218</v>
+      </c>
+      <c r="I13" s="7">
+        <v>131111</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>29</v>
-      </c>
-      <c r="I13" s="7">
-        <v>22724</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="M13" s="7">
-        <v>58</v>
+        <v>439</v>
       </c>
       <c r="N13" s="7">
-        <v>44895</v>
+        <v>273394</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -2201,10 +2201,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D14" s="7">
-        <v>3273</v>
+        <v>7375</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2216,10 +2216,10 @@
         <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>6706</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -2231,10 +2231,10 @@
         <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="N14" s="7">
-        <v>3273</v>
+        <v>14080</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2252,49 +2252,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="D15" s="7">
-        <v>25444</v>
+        <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H15" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I15" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M15" s="7">
-        <v>62</v>
+        <v>461</v>
       </c>
       <c r="N15" s="7">
-        <v>48168</v>
+        <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2305,10 +2305,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>221</v>
+        <v>290</v>
       </c>
       <c r="D16" s="7">
-        <v>142282</v>
+        <v>197053</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>88</v>
@@ -2320,10 +2320,10 @@
         <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>218</v>
+        <v>269</v>
       </c>
       <c r="I16" s="7">
-        <v>131111</v>
+        <v>205577</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>91</v>
@@ -2335,10 +2335,10 @@
         <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>439</v>
+        <v>559</v>
       </c>
       <c r="N16" s="7">
-        <v>273394</v>
+        <v>402629</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>94</v>
@@ -2356,10 +2356,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D17" s="7">
-        <v>7375</v>
+        <v>10771</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>97</v>
@@ -2371,10 +2371,10 @@
         <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>6706</v>
+        <v>3738</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>100</v>
@@ -2386,10 +2386,10 @@
         <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N17" s="7">
-        <v>14080</v>
+        <v>14510</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>103</v>
@@ -2407,49 +2407,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="D18" s="7">
-        <v>149657</v>
+        <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H18" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I18" s="7">
-        <v>137817</v>
+        <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M18" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N18" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2466,7 +2466,7 @@
         <v>689546</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>106</v>
@@ -2517,7 +2517,7 @@
         <v>33154</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>114</v>
@@ -2568,13 +2568,13 @@
         <v>722700</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -2583,13 +2583,13 @@
         <v>681021</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M21" s="7">
         <v>2104</v>
@@ -2598,13 +2598,13 @@
         <v>1403721</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2625,7 +2625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77599D5D-6F3E-4102-93C6-9E01E976D4D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A7F06E-D107-4C6C-BBCF-DEE80EFE9E16}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2743,10 +2743,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>313</v>
+        <v>26</v>
       </c>
       <c r="D4" s="7">
-        <v>216537</v>
+        <v>23299</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>123</v>
@@ -2755,37 +2755,37 @@
         <v>124</v>
       </c>
       <c r="G4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="7">
+        <v>26</v>
+      </c>
+      <c r="I4" s="7">
+        <v>22373</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H4" s="7">
-        <v>303</v>
-      </c>
-      <c r="I4" s="7">
-        <v>195857</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="7">
+        <v>52</v>
+      </c>
+      <c r="N4" s="7">
+        <v>45672</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="M4" s="7">
-        <v>616</v>
-      </c>
-      <c r="N4" s="7">
-        <v>412394</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>130</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2794,49 +2794,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>6628</v>
+        <v>2156</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2156</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H5" s="7">
-        <v>16</v>
-      </c>
-      <c r="I5" s="7">
-        <v>10501</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="M5" s="7">
-        <v>26</v>
-      </c>
-      <c r="N5" s="7">
-        <v>17129</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2845,54 +2845,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>323</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>223165</v>
+        <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H6" s="7">
-        <v>319</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>206358</v>
+        <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M6" s="7">
-        <v>642</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>429523</v>
+        <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2904,13 +2904,13 @@
         <v>124460</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="7">
         <v>157</v>
@@ -2919,13 +2919,13 @@
         <v>112870</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="M7" s="7">
         <v>333</v>
@@ -2934,13 +2934,13 @@
         <v>237329</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2955,13 +2955,13 @@
         <v>4769</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -2970,13 +2970,13 @@
         <v>4114</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -2985,13 +2985,13 @@
         <v>8884</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,13 +3006,13 @@
         <v>129229</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H9" s="7">
         <v>163</v>
@@ -3021,13 +3021,13 @@
         <v>116984</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M9" s="7">
         <v>346</v>
@@ -3036,66 +3036,66 @@
         <v>246213</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="D10" s="7">
-        <v>197165</v>
+        <v>216537</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="H10" s="7">
+        <v>303</v>
+      </c>
+      <c r="I10" s="7">
+        <v>195857</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="M10" s="7">
+        <v>616</v>
+      </c>
+      <c r="N10" s="7">
+        <v>412394</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H10" s="7">
-        <v>264</v>
-      </c>
-      <c r="I10" s="7">
-        <v>202079</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="M10" s="7">
-        <v>532</v>
-      </c>
-      <c r="N10" s="7">
-        <v>399244</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3104,49 +3104,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D11" s="7">
-        <v>9893</v>
+        <v>6628</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H11" s="7">
+        <v>16</v>
+      </c>
+      <c r="I11" s="7">
+        <v>10501</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="M11" s="7">
+        <v>26</v>
+      </c>
+      <c r="N11" s="7">
+        <v>17129</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H11" s="7">
-        <v>11</v>
-      </c>
-      <c r="I11" s="7">
-        <v>8221</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="M11" s="7">
-        <v>24</v>
-      </c>
-      <c r="N11" s="7">
-        <v>18114</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,102 +3155,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>281</v>
+        <v>323</v>
       </c>
       <c r="D12" s="7">
-        <v>207058</v>
+        <v>223165</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H12" s="7">
-        <v>275</v>
+        <v>319</v>
       </c>
       <c r="I12" s="7">
-        <v>210300</v>
+        <v>206358</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M12" s="7">
-        <v>556</v>
+        <v>642</v>
       </c>
       <c r="N12" s="7">
-        <v>417358</v>
+        <v>429523</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>26</v>
+        <v>239</v>
       </c>
       <c r="D13" s="7">
-        <v>23299</v>
+        <v>155231</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H13" s="7">
+        <v>233</v>
+      </c>
+      <c r="I13" s="7">
+        <v>149508</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="M13" s="7">
+        <v>472</v>
+      </c>
+      <c r="N13" s="7">
+        <v>304739</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="7">
-        <v>26</v>
-      </c>
-      <c r="I13" s="7">
-        <v>22373</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="7">
-        <v>52</v>
-      </c>
-      <c r="N13" s="7">
-        <v>45672</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3259,46 +3259,46 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D14" s="7">
-        <v>2156</v>
+        <v>9776</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H14" s="7">
+        <v>9</v>
+      </c>
+      <c r="I14" s="7">
+        <v>5868</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>24</v>
+      </c>
+      <c r="N14" s="7">
+        <v>15644</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="M14" s="7">
-        <v>2</v>
-      </c>
-      <c r="N14" s="7">
-        <v>2156</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>182</v>
@@ -3310,49 +3310,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>28</v>
+        <v>254</v>
       </c>
       <c r="D15" s="7">
-        <v>25455</v>
+        <v>165007</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="I15" s="7">
-        <v>22373</v>
+        <v>155376</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>496</v>
       </c>
       <c r="N15" s="7">
-        <v>47828</v>
+        <v>320383</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3363,10 +3363,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="D16" s="7">
-        <v>155231</v>
+        <v>197165</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>183</v>
@@ -3378,10 +3378,10 @@
         <v>185</v>
       </c>
       <c r="H16" s="7">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="I16" s="7">
-        <v>149508</v>
+        <v>202079</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>186</v>
@@ -3393,10 +3393,10 @@
         <v>188</v>
       </c>
       <c r="M16" s="7">
-        <v>472</v>
+        <v>532</v>
       </c>
       <c r="N16" s="7">
-        <v>304739</v>
+        <v>399244</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>189</v>
@@ -3414,10 +3414,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D17" s="7">
-        <v>9776</v>
+        <v>9893</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>192</v>
@@ -3429,10 +3429,10 @@
         <v>194</v>
       </c>
       <c r="H17" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I17" s="7">
-        <v>5868</v>
+        <v>8221</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>195</v>
@@ -3447,7 +3447,7 @@
         <v>24</v>
       </c>
       <c r="N17" s="7">
-        <v>15644</v>
+        <v>18114</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>198</v>
@@ -3465,49 +3465,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="D18" s="7">
-        <v>165007</v>
+        <v>207058</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H18" s="7">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="I18" s="7">
-        <v>155376</v>
+        <v>210300</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M18" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N18" s="7">
-        <v>320383</v>
+        <v>417358</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3557,7 +3557,7 @@
         <v>207</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>208</v>
@@ -3611,7 +3611,7 @@
         <v>216</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,13 +3626,13 @@
         <v>749914</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H21" s="7">
         <v>1025</v>
@@ -3641,13 +3641,13 @@
         <v>711391</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M21" s="7">
         <v>2094</v>
@@ -3656,13 +3656,13 @@
         <v>1461305</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -3683,7 +3683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED0F360-CEDA-4F1F-865B-B5CC13A669A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5302CD3-4685-4D3C-9F4A-B0C1BB3BA4FF}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3801,49 +3801,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>323</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7">
-        <v>218368</v>
+        <v>24527</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>218</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>155</v>
+        <v>219</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>219</v>
+        <v>14</v>
       </c>
       <c r="H4" s="7">
-        <v>318</v>
+        <v>24</v>
       </c>
       <c r="I4" s="7">
-        <v>197623</v>
+        <v>22527</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>159</v>
-      </c>
       <c r="L4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="7">
+        <v>53</v>
+      </c>
+      <c r="N4" s="7">
+        <v>47054</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="M4" s="7">
-        <v>641</v>
-      </c>
-      <c r="N4" s="7">
-        <v>415991</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>223</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,49 +3852,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>5991</v>
+        <v>1047</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1047</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="H5" s="7">
-        <v>15</v>
-      </c>
-      <c r="I5" s="7">
-        <v>9088</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="M5" s="7">
-        <v>24</v>
-      </c>
-      <c r="N5" s="7">
-        <v>15079</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,54 +3903,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7">
-        <v>224359</v>
+        <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H6" s="7">
-        <v>333</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>206711</v>
+        <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M6" s="7">
-        <v>665</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>431070</v>
+        <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3962,13 +3962,13 @@
         <v>116797</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H7" s="7">
         <v>157</v>
@@ -3977,13 +3977,13 @@
         <v>107228</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M7" s="7">
         <v>314</v>
@@ -3992,13 +3992,13 @@
         <v>224025</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,13 +4013,13 @@
         <v>5705</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -4028,13 +4028,13 @@
         <v>3952</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="M8" s="7">
         <v>14</v>
@@ -4043,13 +4043,13 @@
         <v>9657</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4064,13 +4064,13 @@
         <v>122502</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H9" s="7">
         <v>163</v>
@@ -4079,13 +4079,13 @@
         <v>111180</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M9" s="7">
         <v>328</v>
@@ -4094,66 +4094,66 @@
         <v>233682</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="D10" s="7">
-        <v>200746</v>
+        <v>218368</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H10" s="7">
+        <v>318</v>
+      </c>
+      <c r="I10" s="7">
+        <v>197623</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="M10" s="7">
+        <v>641</v>
+      </c>
+      <c r="N10" s="7">
+        <v>415991</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="H10" s="7">
-        <v>273</v>
-      </c>
-      <c r="I10" s="7">
-        <v>201568</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="M10" s="7">
-        <v>556</v>
-      </c>
-      <c r="N10" s="7">
-        <v>402314</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>253</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>254</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,49 +4162,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D11" s="7">
-        <v>4990</v>
+        <v>5991</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>257</v>
+        <v>192</v>
       </c>
       <c r="H11" s="7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I11" s="7">
-        <v>5165</v>
+        <v>9088</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>260</v>
+        <v>197</v>
       </c>
       <c r="M11" s="7">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N11" s="7">
-        <v>10155</v>
+        <v>15079</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>262</v>
+        <v>104</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4213,102 +4213,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="D12" s="7">
-        <v>205736</v>
+        <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H12" s="7">
-        <v>280</v>
+        <v>333</v>
       </c>
       <c r="I12" s="7">
-        <v>206733</v>
+        <v>206711</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M12" s="7">
-        <v>570</v>
+        <v>665</v>
       </c>
       <c r="N12" s="7">
-        <v>412469</v>
+        <v>431070</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>29</v>
+        <v>244</v>
       </c>
       <c r="D13" s="7">
-        <v>24527</v>
+        <v>163708</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>73</v>
+        <v>256</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>254</v>
       </c>
       <c r="I13" s="7">
-        <v>22527</v>
+        <v>152973</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>73</v>
+        <v>257</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>30</v>
+        <v>259</v>
       </c>
       <c r="M13" s="7">
-        <v>53</v>
+        <v>498</v>
       </c>
       <c r="N13" s="7">
-        <v>47054</v>
+        <v>316682</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>260</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,46 +4317,46 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D14" s="7">
-        <v>1047</v>
+        <v>2965</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H14" s="7">
+        <v>5</v>
+      </c>
+      <c r="I14" s="7">
+        <v>3024</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>9</v>
+      </c>
+      <c r="N14" s="7">
+        <v>5988</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1047</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>271</v>
@@ -4368,49 +4368,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D15" s="7">
-        <v>25574</v>
+        <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H15" s="7">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="I15" s="7">
-        <v>22527</v>
+        <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>507</v>
       </c>
       <c r="N15" s="7">
-        <v>48101</v>
+        <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4421,40 +4421,40 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="D16" s="7">
-        <v>163708</v>
+        <v>200746</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>272</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>273</v>
+      </c>
+      <c r="I16" s="7">
+        <v>201568</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="H16" s="7">
-        <v>254</v>
-      </c>
-      <c r="I16" s="7">
-        <v>152973</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>276</v>
       </c>
       <c r="M16" s="7">
-        <v>498</v>
+        <v>556</v>
       </c>
       <c r="N16" s="7">
-        <v>316682</v>
+        <v>402314</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>277</v>
@@ -4472,10 +4472,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D17" s="7">
-        <v>2965</v>
+        <v>4990</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>280</v>
@@ -4484,28 +4484,28 @@
         <v>281</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H17" s="7">
+        <v>7</v>
+      </c>
+      <c r="I17" s="7">
+        <v>5165</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="H17" s="7">
-        <v>5</v>
-      </c>
-      <c r="I17" s="7">
-        <v>3024</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>257</v>
-      </c>
       <c r="M17" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N17" s="7">
-        <v>5988</v>
+        <v>10155</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>285</v>
@@ -4523,49 +4523,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="D18" s="7">
-        <v>166673</v>
+        <v>205736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H18" s="7">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="I18" s="7">
-        <v>155997</v>
+        <v>206733</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M18" s="7">
-        <v>507</v>
+        <v>570</v>
       </c>
       <c r="N18" s="7">
-        <v>322670</v>
+        <v>412469</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4684,13 +4684,13 @@
         <v>744844</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H21" s="7">
         <v>1059</v>
@@ -4699,13 +4699,13 @@
         <v>703148</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M21" s="7">
         <v>2124</v>
@@ -4714,13 +4714,13 @@
         <v>1447992</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -4741,7 +4741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE22848-A268-4441-A605-6A8111D17CBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D68B3BC-D42A-4F72-A70D-C634A08CC081}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4859,49 +4859,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>337</v>
+        <v>19</v>
       </c>
       <c r="D4" s="7">
-        <v>245646</v>
+        <v>12698</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="7">
+        <v>28</v>
+      </c>
+      <c r="I4" s="7">
+        <v>16787</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="7">
+        <v>47</v>
+      </c>
+      <c r="N4" s="7">
+        <v>29485</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="H4" s="7">
-        <v>277</v>
-      </c>
-      <c r="I4" s="7">
-        <v>190372</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="M4" s="7">
-        <v>614</v>
-      </c>
-      <c r="N4" s="7">
-        <v>436018</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>206</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>311</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,49 +4910,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>4540</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>312</v>
+        <v>24</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>313</v>
+        <v>25</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>1980</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>315</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>316</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="M5" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>6520</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>318</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>213</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,54 +4961,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>343</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7">
-        <v>250186</v>
+        <v>12698</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H6" s="7">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="I6" s="7">
-        <v>192352</v>
+        <v>16787</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M6" s="7">
-        <v>623</v>
+        <v>47</v>
       </c>
       <c r="N6" s="7">
-        <v>442538</v>
+        <v>29485</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5020,13 +5020,13 @@
         <v>111748</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="H7" s="7">
         <v>164</v>
@@ -5035,13 +5035,13 @@
         <v>101900</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="M7" s="7">
         <v>311</v>
@@ -5053,10 +5053,10 @@
         <v>295</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,13 +5071,13 @@
         <v>2848</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -5086,13 +5086,13 @@
         <v>1995</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -5104,10 +5104,10 @@
         <v>302</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5122,13 +5122,13 @@
         <v>114596</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H9" s="7">
         <v>168</v>
@@ -5137,13 +5137,13 @@
         <v>103895</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M9" s="7">
         <v>320</v>
@@ -5152,66 +5152,66 @@
         <v>218490</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>231</v>
+        <v>337</v>
       </c>
       <c r="D10" s="7">
-        <v>170636</v>
+        <v>245646</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>249</v>
+        <v>323</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>189</v>
+        <v>324</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="H10" s="7">
-        <v>239</v>
+        <v>277</v>
       </c>
       <c r="I10" s="7">
-        <v>171197</v>
+        <v>190372</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>73</v>
+        <v>328</v>
       </c>
       <c r="M10" s="7">
-        <v>470</v>
+        <v>614</v>
       </c>
       <c r="N10" s="7">
-        <v>341832</v>
+        <v>436018</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>333</v>
+        <v>149</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>334</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,49 +5220,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="7">
-        <v>4380</v>
+        <v>4540</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>258</v>
+        <v>330</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="H11" s="7">
+        <v>3</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1980</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="M11" s="7">
+        <v>9</v>
+      </c>
+      <c r="N11" s="7">
+        <v>6520</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>746</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M11" s="7">
-        <v>8</v>
-      </c>
-      <c r="N11" s="7">
-        <v>5126</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>339</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>340</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,102 +5271,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>238</v>
+        <v>343</v>
       </c>
       <c r="D12" s="7">
-        <v>175016</v>
+        <v>250186</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H12" s="7">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="I12" s="7">
-        <v>171943</v>
+        <v>192352</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M12" s="7">
-        <v>478</v>
+        <v>623</v>
       </c>
       <c r="N12" s="7">
-        <v>346958</v>
+        <v>442538</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="D13" s="7">
-        <v>12698</v>
+        <v>173208</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="7">
+        <v>218</v>
+      </c>
+      <c r="I13" s="7">
+        <v>163022</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="M13" s="7">
+        <v>443</v>
+      </c>
+      <c r="N13" s="7">
+        <v>336230</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" s="7">
-        <v>28</v>
-      </c>
-      <c r="I13" s="7">
-        <v>16787</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="7">
-        <v>47</v>
-      </c>
-      <c r="N13" s="7">
-        <v>29485</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5381,43 +5381,43 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>344</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>4462</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>345</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>346</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>4462</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>348</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>349</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5426,49 +5426,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="D15" s="7">
-        <v>12698</v>
+        <v>173208</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H15" s="7">
-        <v>28</v>
+        <v>225</v>
       </c>
       <c r="I15" s="7">
-        <v>16787</v>
+        <v>167484</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M15" s="7">
-        <v>47</v>
+        <v>450</v>
       </c>
       <c r="N15" s="7">
-        <v>29485</v>
+        <v>340692</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5479,49 +5479,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="D16" s="7">
-        <v>173208</v>
+        <v>170636</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>73</v>
+        <v>274</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>347</v>
+        <v>171</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>30</v>
+        <v>351</v>
       </c>
       <c r="H16" s="7">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="I16" s="7">
-        <v>163022</v>
+        <v>171197</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>350</v>
+        <v>14</v>
       </c>
       <c r="M16" s="7">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="N16" s="7">
-        <v>336230</v>
+        <v>341832</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5530,40 +5530,40 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>4380</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>81</v>
+        <v>282</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>82</v>
+        <v>356</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>354</v>
+        <v>180</v>
       </c>
       <c r="H17" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>4462</v>
+        <v>746</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>356</v>
+        <v>24</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>357</v>
+        <v>319</v>
       </c>
       <c r="M17" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N17" s="7">
-        <v>4462</v>
+        <v>5126</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>358</v>
@@ -5581,49 +5581,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D18" s="7">
-        <v>173208</v>
+        <v>175016</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H18" s="7">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="I18" s="7">
-        <v>167484</v>
+        <v>171943</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M18" s="7">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="N18" s="7">
-        <v>340692</v>
+        <v>346958</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5742,13 +5742,13 @@
         <v>725704</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H21" s="7">
         <v>941</v>
@@ -5757,13 +5757,13 @@
         <v>652461</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="M21" s="7">
         <v>1918</v>
@@ -5772,13 +5772,13 @@
         <v>1378165</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP21-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP21-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB4AFDF5-CD59-4977-B8D6-86330AE56149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64BB3F26-4FC9-4C05-A6E6-A5504CC2CE6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{3B1CE1CF-3129-44BD-9CB6-5340F2710D2C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{18296C65-BA87-47B1-A508-25911FBB9962}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="376">
   <si>
     <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -71,16 +71,46 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
     <t>87,14%</t>
   </si>
   <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -95,49 +125,46 @@
     <t>93,2%</t>
   </si>
   <si>
-    <t>83,95%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
   </si>
   <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
     <t>98,44%</t>
   </si>
   <si>
-    <t>95,35%</t>
+    <t>95,72%</t>
   </si>
   <si>
     <t>99,53%</t>
@@ -146,1036 +173,1000 @@
     <t>96,67%</t>
   </si>
   <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
   </si>
   <si>
     <t>97,6%</t>
   </si>
   <si>
-    <t>95,58%</t>
+    <t>95,47%</t>
   </si>
   <si>
     <t>98,86%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
     <t>95,41%</t>
   </si>
   <si>
-    <t>92,7%</t>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2015 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
   </si>
   <si>
     <t>97,55%</t>
   </si>
   <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
     <t>97,3%</t>
   </si>
   <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2015 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
     <t>99,34%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
   </si>
   <si>
     <t>98,38%</t>
   </si>
   <si>
-    <t>97,38%</t>
-  </si>
-  <si>
     <t>99,03%</t>
   </si>
   <si>
     <t>98,59%</t>
   </si>
   <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
   </si>
   <si>
     <t>98,48%</t>
   </si>
   <si>
-    <t>97,8%</t>
-  </si>
-  <si>
     <t>98,95%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
   </si>
 </sst>
 </file>
@@ -1186,7 +1177,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1282,39 +1273,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1366,7 +1357,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1477,13 +1468,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1492,6 +1476,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1556,19 +1547,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C0B65A0-B8A7-42EA-91E2-54441F305058}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6215A17A-AD71-479C-B6B4-010AC4A60363}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1685,10 +1696,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>22171</v>
+        <v>3273</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1700,10 +1711,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22724</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1715,10 +1726,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="N4" s="7">
-        <v>44895</v>
+        <v>3273</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1736,10 +1747,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D5" s="7">
-        <v>3273</v>
+        <v>22171</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1751,10 +1762,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22724</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1766,10 +1777,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="N5" s="7">
-        <v>3273</v>
+        <v>44895</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1793,13 +1804,13 @@
         <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
         <v>29</v>
@@ -1808,13 +1819,13 @@
         <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
         <v>62</v>
@@ -1823,13 +1834,13 @@
         <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1840,10 +1851,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>190</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>125638</v>
+        <v>1995</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>31</v>
@@ -1855,10 +1866,10 @@
         <v>33</v>
       </c>
       <c r="H7" s="7">
-        <v>168</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>112142</v>
+        <v>3860</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>34</v>
@@ -1870,10 +1881,10 @@
         <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>358</v>
+        <v>9</v>
       </c>
       <c r="N7" s="7">
-        <v>237780</v>
+        <v>5855</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>37</v>
@@ -1891,10 +1902,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>190</v>
       </c>
       <c r="D8" s="7">
-        <v>1995</v>
+        <v>125638</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>40</v>
@@ -1906,10 +1917,10 @@
         <v>42</v>
       </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="I8" s="7">
-        <v>3860</v>
+        <v>112142</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>43</v>
@@ -1921,10 +1932,10 @@
         <v>45</v>
       </c>
       <c r="M8" s="7">
-        <v>9</v>
+        <v>358</v>
       </c>
       <c r="N8" s="7">
-        <v>5855</v>
+        <v>237780</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>46</v>
@@ -1948,13 +1959,13 @@
         <v>127633</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
         <v>174</v>
@@ -1963,13 +1974,13 @@
         <v>116002</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>367</v>
@@ -1978,13 +1989,13 @@
         <v>243635</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1995,10 +2006,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>307</v>
+        <v>15</v>
       </c>
       <c r="D10" s="7">
-        <v>202403</v>
+        <v>9739</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>50</v>
@@ -2010,10 +2021,10 @@
         <v>52</v>
       </c>
       <c r="H10" s="7">
-        <v>294</v>
+        <v>18</v>
       </c>
       <c r="I10" s="7">
-        <v>184056</v>
+        <v>11107</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>53</v>
@@ -2025,10 +2036,10 @@
         <v>55</v>
       </c>
       <c r="M10" s="7">
-        <v>601</v>
+        <v>33</v>
       </c>
       <c r="N10" s="7">
-        <v>386459</v>
+        <v>20846</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>56</v>
@@ -2046,10 +2057,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>15</v>
+        <v>307</v>
       </c>
       <c r="D11" s="7">
-        <v>9739</v>
+        <v>202403</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>59</v>
@@ -2061,10 +2072,10 @@
         <v>61</v>
       </c>
       <c r="H11" s="7">
-        <v>18</v>
+        <v>294</v>
       </c>
       <c r="I11" s="7">
-        <v>11107</v>
+        <v>184056</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>62</v>
@@ -2076,10 +2087,10 @@
         <v>64</v>
       </c>
       <c r="M11" s="7">
-        <v>33</v>
+        <v>601</v>
       </c>
       <c r="N11" s="7">
-        <v>20846</v>
+        <v>386459</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>65</v>
@@ -2103,13 +2114,13 @@
         <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
         <v>312</v>
@@ -2118,13 +2129,13 @@
         <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
         <v>634</v>
@@ -2133,13 +2144,13 @@
         <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2150,10 +2161,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>221</v>
+        <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>142282</v>
+        <v>7375</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
@@ -2165,10 +2176,10 @@
         <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>218</v>
+        <v>11</v>
       </c>
       <c r="I13" s="7">
-        <v>131111</v>
+        <v>6706</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>72</v>
@@ -2180,10 +2191,10 @@
         <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>439</v>
+        <v>22</v>
       </c>
       <c r="N13" s="7">
-        <v>273394</v>
+        <v>14080</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>75</v>
@@ -2201,10 +2212,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>11</v>
+        <v>221</v>
       </c>
       <c r="D14" s="7">
-        <v>7375</v>
+        <v>142282</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -2216,10 +2227,10 @@
         <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>11</v>
+        <v>218</v>
       </c>
       <c r="I14" s="7">
-        <v>6706</v>
+        <v>131111</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -2231,10 +2242,10 @@
         <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>22</v>
+        <v>439</v>
       </c>
       <c r="N14" s="7">
-        <v>14080</v>
+        <v>273394</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2258,13 +2269,13 @@
         <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
         <v>229</v>
@@ -2273,13 +2284,13 @@
         <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
         <v>461</v>
@@ -2288,13 +2299,13 @@
         <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2305,49 +2316,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>290</v>
+        <v>16</v>
       </c>
       <c r="D16" s="7">
-        <v>197053</v>
+        <v>10771</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>5</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3738</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="7">
-        <v>269</v>
-      </c>
-      <c r="I16" s="7">
-        <v>205577</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>21</v>
+      </c>
+      <c r="N16" s="7">
+        <v>14510</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M16" s="7">
-        <v>559</v>
-      </c>
-      <c r="N16" s="7">
-        <v>402629</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2356,49 +2367,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>16</v>
+        <v>290</v>
       </c>
       <c r="D17" s="7">
-        <v>10771</v>
+        <v>197053</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="7">
+        <v>269</v>
+      </c>
+      <c r="I17" s="7">
+        <v>205577</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H17" s="7">
-        <v>5</v>
-      </c>
-      <c r="I17" s="7">
-        <v>3738</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>559</v>
+      </c>
+      <c r="N17" s="7">
+        <v>402629</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="M17" s="7">
-        <v>21</v>
-      </c>
-      <c r="N17" s="7">
-        <v>14510</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2413,13 +2424,13 @@
         <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
         <v>274</v>
@@ -2428,13 +2439,13 @@
         <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
         <v>580</v>
@@ -2443,13 +2454,13 @@
         <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2460,49 +2471,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1037</v>
+        <v>49</v>
       </c>
       <c r="D19" s="7">
-        <v>689546</v>
+        <v>33154</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" s="7">
+        <v>40</v>
+      </c>
+      <c r="I19" s="7">
+        <v>25411</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H19" s="7">
-        <v>978</v>
-      </c>
-      <c r="I19" s="7">
-        <v>655610</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>89</v>
+      </c>
+      <c r="N19" s="7">
+        <v>58565</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="M19" s="7">
-        <v>2015</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1345156</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2511,49 +2522,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>49</v>
+        <v>1037</v>
       </c>
       <c r="D20" s="7">
-        <v>33154</v>
+        <v>689546</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>59</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H20" s="7">
+        <v>978</v>
+      </c>
+      <c r="I20" s="7">
+        <v>655610</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H20" s="7">
-        <v>40</v>
-      </c>
-      <c r="I20" s="7">
-        <v>25411</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>2015</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1345156</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="M20" s="7">
-        <v>89</v>
-      </c>
-      <c r="N20" s="7">
-        <v>58565</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2568,13 +2579,13 @@
         <v>722700</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -2583,13 +2594,13 @@
         <v>681021</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M21" s="7">
         <v>2104</v>
@@ -2598,13 +2609,18 @@
         <v>1403721</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2625,8 +2641,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14A7F06E-D107-4C6C-BBCF-DEE80EFE9E16}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C2A4A92-7C98-4C76-9A22-5C3D130E2C04}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2642,7 +2658,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2743,49 +2759,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>23299</v>
+        <v>2156</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="H4" s="7">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22373</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M4" s="7">
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>2156</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>52</v>
-      </c>
-      <c r="N4" s="7">
-        <v>45672</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2794,49 +2810,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D5" s="7">
-        <v>2156</v>
+        <v>23299</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>129</v>
-      </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22373</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="L5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="7">
+        <v>52</v>
+      </c>
+      <c r="N5" s="7">
+        <v>45672</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="M5" s="7">
-        <v>2</v>
-      </c>
-      <c r="N5" s="7">
-        <v>2156</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2851,13 +2867,13 @@
         <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
         <v>26</v>
@@ -2866,13 +2882,13 @@
         <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -2881,13 +2897,13 @@
         <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2898,49 +2914,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>176</v>
+        <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>124460</v>
+        <v>4769</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="H7" s="7">
-        <v>157</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>112870</v>
+        <v>4114</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M7" s="7">
-        <v>333</v>
+        <v>13</v>
       </c>
       <c r="N7" s="7">
-        <v>237329</v>
+        <v>8884</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2949,49 +2965,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
+        <v>176</v>
       </c>
       <c r="D8" s="7">
-        <v>4769</v>
+        <v>124460</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>157</v>
       </c>
       <c r="I8" s="7">
-        <v>4114</v>
+        <v>112870</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M8" s="7">
-        <v>13</v>
+        <v>333</v>
       </c>
       <c r="N8" s="7">
-        <v>8884</v>
+        <v>237329</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,13 +3022,13 @@
         <v>129229</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
         <v>163</v>
@@ -3021,13 +3037,13 @@
         <v>116984</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>346</v>
@@ -3036,13 +3052,13 @@
         <v>246213</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3053,49 +3069,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>313</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>216537</v>
+        <v>6628</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H10" s="7">
-        <v>303</v>
+        <v>16</v>
       </c>
       <c r="I10" s="7">
-        <v>195857</v>
+        <v>10501</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M10" s="7">
-        <v>616</v>
+        <v>26</v>
       </c>
       <c r="N10" s="7">
-        <v>412394</v>
+        <v>17129</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3104,49 +3120,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>10</v>
+        <v>313</v>
       </c>
       <c r="D11" s="7">
-        <v>6628</v>
+        <v>216537</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H11" s="7">
-        <v>16</v>
+        <v>303</v>
       </c>
       <c r="I11" s="7">
-        <v>10501</v>
+        <v>195857</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M11" s="7">
-        <v>26</v>
+        <v>616</v>
       </c>
       <c r="N11" s="7">
-        <v>17129</v>
+        <v>412394</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,13 +3177,13 @@
         <v>223165</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
         <v>319</v>
@@ -3176,13 +3192,13 @@
         <v>206358</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
         <v>642</v>
@@ -3191,13 +3207,13 @@
         <v>429523</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3208,49 +3224,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>239</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>155231</v>
+        <v>9776</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H13" s="7">
-        <v>233</v>
+        <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>149508</v>
+        <v>5868</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M13" s="7">
-        <v>472</v>
+        <v>24</v>
       </c>
       <c r="N13" s="7">
-        <v>304739</v>
+        <v>15644</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3259,49 +3275,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>15</v>
+        <v>239</v>
       </c>
       <c r="D14" s="7">
-        <v>9776</v>
+        <v>155231</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H14" s="7">
-        <v>9</v>
+        <v>233</v>
       </c>
       <c r="I14" s="7">
-        <v>5868</v>
+        <v>149508</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M14" s="7">
-        <v>24</v>
+        <v>472</v>
       </c>
       <c r="N14" s="7">
-        <v>15644</v>
+        <v>304739</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,13 +3332,13 @@
         <v>165007</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
         <v>242</v>
@@ -3331,13 +3347,13 @@
         <v>155376</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
         <v>496</v>
@@ -3346,13 +3362,13 @@
         <v>320383</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3363,49 +3379,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>268</v>
+        <v>13</v>
       </c>
       <c r="D16" s="7">
-        <v>197165</v>
+        <v>9893</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H16" s="7">
-        <v>264</v>
+        <v>11</v>
       </c>
       <c r="I16" s="7">
-        <v>202079</v>
+        <v>8221</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M16" s="7">
-        <v>532</v>
+        <v>24</v>
       </c>
       <c r="N16" s="7">
-        <v>399244</v>
+        <v>18114</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,49 +3430,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>13</v>
+        <v>268</v>
       </c>
       <c r="D17" s="7">
-        <v>9893</v>
+        <v>197165</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="H17" s="7">
-        <v>11</v>
+        <v>264</v>
       </c>
       <c r="I17" s="7">
-        <v>8221</v>
+        <v>202079</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M17" s="7">
-        <v>24</v>
+        <v>532</v>
       </c>
       <c r="N17" s="7">
-        <v>18114</v>
+        <v>399244</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,13 +3487,13 @@
         <v>207058</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
         <v>275</v>
@@ -3486,13 +3502,13 @@
         <v>210300</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
         <v>556</v>
@@ -3501,13 +3517,13 @@
         <v>417358</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3518,49 +3534,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1022</v>
+        <v>47</v>
       </c>
       <c r="D19" s="7">
-        <v>716692</v>
+        <v>33222</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H19" s="7">
-        <v>983</v>
+        <v>42</v>
       </c>
       <c r="I19" s="7">
-        <v>682687</v>
+        <v>28704</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>205</v>
+        <v>150</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>206</v>
       </c>
       <c r="M19" s="7">
-        <v>2005</v>
+        <v>89</v>
       </c>
       <c r="N19" s="7">
-        <v>1399379</v>
+        <v>61926</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>207</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>148</v>
+        <v>208</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>208</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3569,10 +3585,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>47</v>
+        <v>1022</v>
       </c>
       <c r="D20" s="7">
-        <v>33222</v>
+        <v>716692</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>209</v>
@@ -3584,10 +3600,10 @@
         <v>211</v>
       </c>
       <c r="H20" s="7">
-        <v>42</v>
+        <v>983</v>
       </c>
       <c r="I20" s="7">
-        <v>28704</v>
+        <v>682687</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>212</v>
@@ -3596,22 +3612,22 @@
         <v>213</v>
       </c>
       <c r="L20" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M20" s="7">
+        <v>2005</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1399379</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="M20" s="7">
-        <v>89</v>
-      </c>
-      <c r="N20" s="7">
-        <v>61926</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,13 +3642,13 @@
         <v>749914</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H21" s="7">
         <v>1025</v>
@@ -3641,13 +3657,13 @@
         <v>711391</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M21" s="7">
         <v>2094</v>
@@ -3656,13 +3672,18 @@
         <v>1461305</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3683,8 +3704,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5302CD3-4685-4D3C-9F4A-B0C1BB3BA4FF}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1F764A-AD76-46F3-812E-595188778A85}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3700,7 +3721,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3801,49 +3822,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>24527</v>
+        <v>1047</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="H4" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22527</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1047</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>53</v>
-      </c>
-      <c r="N4" s="7">
-        <v>47054</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="P4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,49 +3873,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D5" s="7">
-        <v>1047</v>
+        <v>24527</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>222</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>223</v>
-      </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22527</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>25</v>
+        <v>224</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>224</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="N5" s="7">
-        <v>1047</v>
+        <v>47054</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>145</v>
+        <v>225</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3909,13 +3930,13 @@
         <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
         <v>24</v>
@@ -3924,13 +3945,13 @@
         <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -3939,13 +3960,13 @@
         <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,49 +3977,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>157</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>116797</v>
+        <v>5705</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H7" s="7">
-        <v>157</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>107228</v>
+        <v>3952</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M7" s="7">
-        <v>314</v>
+        <v>14</v>
       </c>
       <c r="N7" s="7">
-        <v>224025</v>
+        <v>9657</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,49 +4028,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>157</v>
       </c>
       <c r="D8" s="7">
-        <v>5705</v>
+        <v>116797</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>157</v>
       </c>
       <c r="I8" s="7">
-        <v>3952</v>
+        <v>107228</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M8" s="7">
-        <v>14</v>
+        <v>314</v>
       </c>
       <c r="N8" s="7">
-        <v>9657</v>
+        <v>224025</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4064,13 +4085,13 @@
         <v>122502</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
         <v>163</v>
@@ -4079,13 +4100,13 @@
         <v>111180</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>328</v>
@@ -4094,13 +4115,13 @@
         <v>233682</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,49 +4132,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>323</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>218368</v>
+        <v>5991</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H10" s="7">
-        <v>318</v>
+        <v>15</v>
       </c>
       <c r="I10" s="7">
-        <v>197623</v>
+        <v>9088</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>187</v>
+        <v>247</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M10" s="7">
-        <v>641</v>
+        <v>24</v>
       </c>
       <c r="N10" s="7">
-        <v>415991</v>
+        <v>15079</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>247</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>96</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,49 +4183,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>9</v>
+        <v>323</v>
       </c>
       <c r="D11" s="7">
-        <v>5991</v>
+        <v>218368</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>192</v>
+        <v>253</v>
       </c>
       <c r="H11" s="7">
-        <v>15</v>
+        <v>318</v>
       </c>
       <c r="I11" s="7">
-        <v>9088</v>
+        <v>197623</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>197</v>
+        <v>256</v>
       </c>
       <c r="M11" s="7">
-        <v>24</v>
+        <v>641</v>
       </c>
       <c r="N11" s="7">
-        <v>15079</v>
+        <v>415991</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>104</v>
+        <v>258</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>253</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4219,13 +4240,13 @@
         <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
         <v>333</v>
@@ -4234,13 +4255,13 @@
         <v>206711</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
         <v>665</v>
@@ -4249,13 +4270,13 @@
         <v>431070</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,49 +4287,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>244</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>163708</v>
+        <v>2965</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="H13" s="7">
-        <v>254</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>152973</v>
+        <v>3024</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>257</v>
+        <v>139</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M13" s="7">
-        <v>498</v>
+        <v>9</v>
       </c>
       <c r="N13" s="7">
-        <v>316682</v>
+        <v>5988</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>262</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,49 +4338,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>244</v>
       </c>
       <c r="D14" s="7">
-        <v>2965</v>
+        <v>163708</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H14" s="7">
-        <v>5</v>
+        <v>254</v>
       </c>
       <c r="I14" s="7">
-        <v>3024</v>
+        <v>152973</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>266</v>
+        <v>149</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M14" s="7">
-        <v>9</v>
+        <v>498</v>
       </c>
       <c r="N14" s="7">
-        <v>5988</v>
+        <v>316682</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>270</v>
+        <v>43</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4374,13 +4395,13 @@
         <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
         <v>259</v>
@@ -4389,13 +4410,13 @@
         <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
         <v>507</v>
@@ -4404,13 +4425,13 @@
         <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4421,49 +4442,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>283</v>
+        <v>7</v>
       </c>
       <c r="D16" s="7">
-        <v>200746</v>
+        <v>4990</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="H16" s="7">
-        <v>273</v>
+        <v>7</v>
       </c>
       <c r="I16" s="7">
-        <v>201568</v>
+        <v>5165</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M16" s="7">
-        <v>556</v>
+        <v>14</v>
       </c>
       <c r="N16" s="7">
-        <v>402314</v>
+        <v>10155</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4472,49 +4493,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>7</v>
+        <v>283</v>
       </c>
       <c r="D17" s="7">
-        <v>4990</v>
+        <v>200746</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>281</v>
+        <v>235</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="H17" s="7">
-        <v>7</v>
+        <v>273</v>
       </c>
       <c r="I17" s="7">
-        <v>5165</v>
+        <v>201568</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M17" s="7">
-        <v>14</v>
+        <v>556</v>
       </c>
       <c r="N17" s="7">
-        <v>10155</v>
+        <v>402314</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4529,13 +4550,13 @@
         <v>205736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
         <v>280</v>
@@ -4544,13 +4565,13 @@
         <v>206733</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
         <v>570</v>
@@ -4559,13 +4580,13 @@
         <v>412469</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4576,49 +4597,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1036</v>
+        <v>29</v>
       </c>
       <c r="D19" s="7">
-        <v>724147</v>
+        <v>20697</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H19" s="7">
-        <v>1026</v>
+        <v>33</v>
       </c>
       <c r="I19" s="7">
-        <v>681920</v>
+        <v>21228</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>292</v>
+        <v>94</v>
       </c>
       <c r="L19" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="M19" s="7">
+        <v>62</v>
+      </c>
+      <c r="N19" s="7">
+        <v>41925</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="M19" s="7">
-        <v>2062</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1406067</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4627,49 +4648,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>29</v>
+        <v>1036</v>
       </c>
       <c r="D20" s="7">
-        <v>20697</v>
+        <v>724147</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>1026</v>
+      </c>
+      <c r="I20" s="7">
+        <v>681920</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="H20" s="7">
-        <v>33</v>
-      </c>
-      <c r="I20" s="7">
-        <v>21228</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="M20" s="7">
+        <v>2062</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1406067</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="M20" s="7">
-        <v>62</v>
-      </c>
-      <c r="N20" s="7">
-        <v>41925</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4684,13 +4705,13 @@
         <v>744844</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H21" s="7">
         <v>1059</v>
@@ -4699,13 +4720,13 @@
         <v>703148</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M21" s="7">
         <v>2124</v>
@@ -4714,13 +4735,18 @@
         <v>1447992</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4741,8 +4767,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D68B3BC-D42A-4F72-A70D-C634A08CC081}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E9A17C-6770-4D61-896B-72940FA24706}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4758,7 +4784,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4859,49 +4885,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>12698</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>305</v>
+        <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>16</v>
+        <v>302</v>
       </c>
       <c r="H4" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>16787</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>306</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>16</v>
+        <v>303</v>
       </c>
       <c r="M4" s="7">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>29485</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>307</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>16</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,49 +4936,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>12698</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>25</v>
+        <v>305</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>308</v>
+        <v>26</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>16787</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>25</v>
+        <v>306</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>309</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>29485</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>307</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>310</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4967,13 +4993,13 @@
         <v>12698</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H6" s="7">
         <v>28</v>
@@ -4982,13 +5008,13 @@
         <v>16787</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
         <v>47</v>
@@ -4997,13 +5023,13 @@
         <v>29485</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,49 +5040,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>111748</v>
+        <v>2848</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H7" s="7">
+        <v>4</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1995</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H7" s="7">
-        <v>164</v>
-      </c>
-      <c r="I7" s="7">
-        <v>101900</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>9</v>
+      </c>
+      <c r="N7" s="7">
+        <v>4843</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="M7" s="7">
-        <v>311</v>
-      </c>
-      <c r="N7" s="7">
-        <v>213647</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>295</v>
-      </c>
       <c r="P7" s="7" t="s">
-        <v>316</v>
+        <v>274</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>273</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,49 +5091,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>5</v>
+        <v>147</v>
       </c>
       <c r="D8" s="7">
-        <v>2848</v>
+        <v>111748</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>164</v>
+      </c>
+      <c r="I8" s="7">
+        <v>101900</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="H8" s="7">
-        <v>4</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1995</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>311</v>
+      </c>
+      <c r="N8" s="7">
+        <v>213647</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="M8" s="7">
-        <v>9</v>
-      </c>
-      <c r="N8" s="7">
-        <v>4843</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>302</v>
-      </c>
       <c r="P8" s="7" t="s">
-        <v>281</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>322</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5122,13 +5148,13 @@
         <v>114596</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H9" s="7">
         <v>168</v>
@@ -5137,13 +5163,13 @@
         <v>103895</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M9" s="7">
         <v>320</v>
@@ -5152,13 +5178,13 @@
         <v>218490</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5169,46 +5195,46 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>337</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>245646</v>
+        <v>4540</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1980</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="H10" s="7">
-        <v>277</v>
-      </c>
-      <c r="I10" s="7">
-        <v>190372</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>9</v>
+      </c>
+      <c r="N10" s="7">
+        <v>6520</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="M10" s="7">
-        <v>614</v>
-      </c>
-      <c r="N10" s="7">
-        <v>436018</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>149</v>
-      </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>329</v>
@@ -5220,10 +5246,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>6</v>
+        <v>337</v>
       </c>
       <c r="D11" s="7">
-        <v>4540</v>
+        <v>245646</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>330</v>
@@ -5235,10 +5261,10 @@
         <v>332</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>277</v>
       </c>
       <c r="I11" s="7">
-        <v>1980</v>
+        <v>190372</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>333</v>
@@ -5250,19 +5276,19 @@
         <v>335</v>
       </c>
       <c r="M11" s="7">
-        <v>9</v>
+        <v>614</v>
       </c>
       <c r="N11" s="7">
-        <v>6520</v>
+        <v>436018</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>157</v>
+        <v>336</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>213</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5277,13 +5303,13 @@
         <v>250186</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H12" s="7">
         <v>280</v>
@@ -5292,13 +5318,13 @@
         <v>192352</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
         <v>623</v>
@@ -5307,13 +5333,13 @@
         <v>442538</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5324,49 +5350,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>173208</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>337</v>
+        <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>16</v>
+        <v>338</v>
       </c>
       <c r="H13" s="7">
-        <v>218</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>163022</v>
+        <v>4462</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M13" s="7">
-        <v>443</v>
+        <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>336230</v>
+        <v>4462</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5375,49 +5401,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>173208</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>25</v>
+        <v>345</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>344</v>
+        <v>26</v>
       </c>
       <c r="H14" s="7">
-        <v>7</v>
+        <v>218</v>
       </c>
       <c r="I14" s="7">
-        <v>4462</v>
+        <v>163022</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M14" s="7">
-        <v>7</v>
+        <v>443</v>
       </c>
       <c r="N14" s="7">
-        <v>4462</v>
+        <v>336230</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5432,13 +5458,13 @@
         <v>173208</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H15" s="7">
         <v>225</v>
@@ -5447,13 +5473,13 @@
         <v>167484</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M15" s="7">
         <v>450</v>
@@ -5462,13 +5488,13 @@
         <v>340692</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5479,49 +5505,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>231</v>
+        <v>7</v>
       </c>
       <c r="D16" s="7">
-        <v>170636</v>
+        <v>4380</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>171</v>
+        <v>352</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>351</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
-        <v>239</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>171197</v>
+        <v>746</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>313</v>
+        <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>14</v>
+        <v>354</v>
       </c>
       <c r="M16" s="7">
-        <v>470</v>
+        <v>8</v>
       </c>
       <c r="N16" s="7">
-        <v>341832</v>
+        <v>5126</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>353</v>
+        <v>151</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5530,49 +5556,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>7</v>
+        <v>231</v>
       </c>
       <c r="D17" s="7">
-        <v>4380</v>
+        <v>170636</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>356</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>180</v>
+        <v>357</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>239</v>
       </c>
       <c r="I17" s="7">
-        <v>746</v>
+        <v>171197</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>319</v>
-      </c>
       <c r="M17" s="7">
-        <v>8</v>
+        <v>470</v>
       </c>
       <c r="N17" s="7">
-        <v>5126</v>
+        <v>341832</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>358</v>
+        <v>161</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5587,13 +5613,13 @@
         <v>175016</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H18" s="7">
         <v>240</v>
@@ -5602,13 +5628,13 @@
         <v>171943</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M18" s="7">
         <v>478</v>
@@ -5617,13 +5643,13 @@
         <v>346958</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5634,25 +5660,25 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>959</v>
+        <v>18</v>
       </c>
       <c r="D19" s="7">
-        <v>713936</v>
+        <v>11768</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>363</v>
+        <v>70</v>
       </c>
       <c r="H19" s="7">
-        <v>926</v>
+        <v>15</v>
       </c>
       <c r="I19" s="7">
-        <v>643279</v>
+        <v>9182</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>364</v>
@@ -5664,10 +5690,10 @@
         <v>366</v>
       </c>
       <c r="M19" s="7">
-        <v>1885</v>
+        <v>33</v>
       </c>
       <c r="N19" s="7">
-        <v>1357215</v>
+        <v>20950</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>367</v>
@@ -5676,7 +5702,7 @@
         <v>368</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>369</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5685,49 +5711,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>18</v>
+        <v>959</v>
       </c>
       <c r="D20" s="7">
-        <v>11768</v>
+        <v>713936</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>926</v>
+      </c>
+      <c r="I20" s="7">
+        <v>643279</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="H20" s="7">
-        <v>15</v>
-      </c>
-      <c r="I20" s="7">
-        <v>9182</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1885</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1357215</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="M20" s="7">
-        <v>33</v>
-      </c>
-      <c r="N20" s="7">
-        <v>20950</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5742,13 +5768,13 @@
         <v>725704</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H21" s="7">
         <v>941</v>
@@ -5757,13 +5783,13 @@
         <v>652461</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M21" s="7">
         <v>1918</v>
@@ -5772,13 +5798,18 @@
         <v>1378165</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP21-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP21-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{64BB3F26-4FC9-4C05-A6E6-A5504CC2CE6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33BC06D1-D5A6-4454-B0A1-1A5F58D265C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{18296C65-BA87-47B1-A508-25911FBB9962}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3E37E85D-B88C-4E2C-A550-108DE45A91EF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="382">
   <si>
     <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,10 +77,10 @@
     <t>12,86%</t>
   </si>
   <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -95,10 +95,10 @@
     <t>6,8%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,10 +107,10 @@
     <t>87,14%</t>
   </si>
   <si>
-    <t>68,34%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -125,13 +125,13 @@
     <t>93,2%</t>
   </si>
   <si>
-    <t>83,36%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>1,56%</t>
@@ -140,31 +140,31 @@
     <t>0,47%</t>
   </si>
   <si>
-    <t>4,28%</t>
+    <t>4,57%</t>
   </si>
   <si>
     <t>3,33%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
   </si>
   <si>
     <t>2,4%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
   </si>
   <si>
     <t>98,44%</t>
   </si>
   <si>
-    <t>95,72%</t>
+    <t>95,43%</t>
   </si>
   <si>
     <t>99,53%</t>
@@ -173,31 +173,31 @@
     <t>96,67%</t>
   </si>
   <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
   </si>
   <si>
     <t>97,6%</t>
   </si>
   <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>4,59%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
   </si>
   <si>
     <t>5,69%</t>
@@ -206,199 +206,205 @@
     <t>3,47%</t>
   </si>
   <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
     <t>8,46%</t>
   </si>
   <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
   </si>
   <si>
     <t>91,54%</t>
   </si>
   <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
+    <t>96,81%</t>
   </si>
   <si>
     <t>98,21%</t>
   </si>
   <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
   </si>
   <si>
     <t>96,52%</t>
   </si>
   <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
   </si>
   <si>
     <t>3,73%</t>
   </si>
   <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
   </si>
   <si>
     <t>4,17%</t>
   </si>
   <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
   </si>
   <si>
     <t>96,27%</t>
   </si>
   <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
   </si>
   <si>
     <t>95,83%</t>
   </si>
   <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -407,10 +413,7 @@
     <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,76%)</t>
   </si>
   <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
+    <t>26,35%</t>
   </si>
   <si>
     <t>7,06%</t>
@@ -419,13 +422,10 @@
     <t>4,51%</t>
   </si>
   <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
   </si>
   <si>
     <t>92,94%</t>
@@ -434,7 +434,7 @@
     <t>95,49%</t>
   </si>
   <si>
-    <t>83,11%</t>
+    <t>85,53%</t>
   </si>
   <si>
     <t>3,69%</t>
@@ -443,730 +443,748 @@
     <t>1,57%</t>
   </si>
   <si>
-    <t>7,68%</t>
+    <t>7,42%</t>
   </si>
   <si>
     <t>3,52%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
   </si>
   <si>
     <t>3,61%</t>
   </si>
   <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2016 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
     <t>1,94%</t>
   </si>
   <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
   </si>
   <si>
     <t>98,06%</t>
   </si>
   <si>
-    <t>2,97%</t>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
   </si>
   <si>
     <t>1,48%</t>
   </si>
   <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
   </si>
   <si>
     <t>97,37%</t>
   </si>
   <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2015 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
   </si>
   <si>
     <t>98,48%</t>
   </si>
   <si>
-    <t>98,95%</t>
+    <t>97,93%</t>
   </si>
 </sst>
 </file>
@@ -1578,7 +1596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6215A17A-AD71-479C-B6B4-010AC4A60363}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AB104C-4FE1-4995-A4E3-466BB5242159}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2325,10 +2343,10 @@
         <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -2337,13 +2355,13 @@
         <v>3738</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>21</v>
@@ -2352,13 +2370,13 @@
         <v>14510</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,13 +2391,13 @@
         <v>197053</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>269</v>
@@ -2388,13 +2406,13 @@
         <v>205577</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>559</v>
@@ -2403,13 +2421,13 @@
         <v>402629</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2480,10 +2498,10 @@
         <v>50</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>40</v>
@@ -2492,13 +2510,13 @@
         <v>25411</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>89</v>
@@ -2507,13 +2525,13 @@
         <v>58565</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2531,10 +2549,10 @@
         <v>59</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>978</v>
@@ -2543,13 +2561,13 @@
         <v>655610</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>2015</v>
@@ -2558,13 +2576,13 @@
         <v>1345156</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,7 +2638,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2641,7 +2659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C2A4A92-7C98-4C76-9A22-5C3D130E2C04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7383602-70E6-4D9B-97CC-5052E563899D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2658,7 +2676,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2765,13 +2783,13 @@
         <v>2156</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2786,7 +2804,7 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -2795,13 +2813,13 @@
         <v>2156</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2816,7 +2834,7 @@
         <v>23299</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>128</v>
@@ -3233,10 +3251,10 @@
         <v>168</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -3245,13 +3263,13 @@
         <v>5868</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -3260,13 +3278,13 @@
         <v>15644</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,13 +3299,13 @@
         <v>155231</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>178</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>179</v>
+        <v>64</v>
       </c>
       <c r="H14" s="7">
         <v>233</v>
@@ -3296,13 +3314,13 @@
         <v>149508</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M14" s="7">
         <v>472</v>
@@ -3311,13 +3329,13 @@
         <v>304739</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3385,13 +3403,13 @@
         <v>9893</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -3400,13 +3418,13 @@
         <v>8221</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -3415,13 +3433,13 @@
         <v>18114</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,13 +3454,13 @@
         <v>197165</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H17" s="7">
         <v>264</v>
@@ -3558,10 +3576,10 @@
         <v>205</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>150</v>
+        <v>206</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M19" s="7">
         <v>89</v>
@@ -3570,13 +3588,13 @@
         <v>61926</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>208</v>
+        <v>94</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>108</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,13 +3609,13 @@
         <v>716692</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H20" s="7">
         <v>983</v>
@@ -3606,13 +3624,13 @@
         <v>682687</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>159</v>
+        <v>215</v>
       </c>
       <c r="M20" s="7">
         <v>2005</v>
@@ -3621,13 +3639,13 @@
         <v>1399379</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>115</v>
+        <v>217</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>215</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,7 +3701,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3704,7 +3722,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1F764A-AD76-46F3-812E-595188778A85}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021A34E5-D127-472C-ACB3-3C61E94ECE56}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3721,7 +3739,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3828,13 +3846,13 @@
         <v>1047</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3849,7 +3867,7 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3858,13 +3876,13 @@
         <v>1047</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,10 +3897,10 @@
         <v>24527</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>24</v>
@@ -3897,7 +3915,7 @@
         <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -3909,10 +3927,10 @@
         <v>47054</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>24</v>
@@ -3983,13 +4001,13 @@
         <v>5705</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -3998,13 +4016,13 @@
         <v>3952</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -4013,13 +4031,13 @@
         <v>9657</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>233</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,13 +4052,13 @@
         <v>116797</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>98</v>
+        <v>239</v>
       </c>
       <c r="H8" s="7">
         <v>157</v>
@@ -4049,13 +4067,13 @@
         <v>107228</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M8" s="7">
         <v>314</v>
@@ -4064,13 +4082,13 @@
         <v>224025</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>242</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4138,13 +4156,13 @@
         <v>5991</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H10" s="7">
         <v>15</v>
@@ -4153,13 +4171,13 @@
         <v>9088</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M10" s="7">
         <v>24</v>
@@ -4168,13 +4186,13 @@
         <v>15079</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>73</v>
+        <v>252</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4207,13 @@
         <v>218368</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H11" s="7">
         <v>318</v>
@@ -4204,13 +4222,13 @@
         <v>197623</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M11" s="7">
         <v>641</v>
@@ -4219,13 +4237,13 @@
         <v>415991</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>83</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4293,13 +4311,13 @@
         <v>2965</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -4308,13 +4326,13 @@
         <v>3024</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>139</v>
+        <v>266</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -4323,13 +4341,13 @@
         <v>5988</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4344,13 +4362,13 @@
         <v>163708</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="H14" s="7">
         <v>254</v>
@@ -4359,13 +4377,13 @@
         <v>152973</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>149</v>
+        <v>274</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="M14" s="7">
         <v>498</v>
@@ -4374,13 +4392,13 @@
         <v>316682</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4448,13 +4466,13 @@
         <v>4990</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>227</v>
+        <v>75</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -4463,13 +4481,13 @@
         <v>5165</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -4478,13 +4496,13 @@
         <v>10155</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4499,13 +4517,13 @@
         <v>200746</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>235</v>
+        <v>84</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="H17" s="7">
         <v>273</v>
@@ -4514,13 +4532,13 @@
         <v>201568</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="M17" s="7">
         <v>556</v>
@@ -4529,13 +4547,13 @@
         <v>402314</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,13 +4621,13 @@
         <v>20697</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="H19" s="7">
         <v>33</v>
@@ -4618,13 +4636,13 @@
         <v>21228</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>94</v>
+        <v>298</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>207</v>
+        <v>299</v>
       </c>
       <c r="M19" s="7">
         <v>62</v>
@@ -4633,13 +4651,13 @@
         <v>41925</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>192</v>
+        <v>300</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4654,13 +4672,13 @@
         <v>724147</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="H20" s="7">
         <v>1026</v>
@@ -4669,13 +4687,13 @@
         <v>681920</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>214</v>
+        <v>306</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>307</v>
       </c>
       <c r="M20" s="7">
         <v>2062</v>
@@ -4684,13 +4702,13 @@
         <v>1406067</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>201</v>
+        <v>308</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4746,7 +4764,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4767,7 +4785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E9A17C-6770-4D61-896B-72940FA24706}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F9C7FE-5F02-44E0-B45D-6572564B9CEB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4784,7 +4802,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4897,7 +4915,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4912,7 +4930,7 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4927,7 +4945,7 @@
         <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4945,7 +4963,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -4960,7 +4978,7 @@
         <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -4975,7 +4993,7 @@
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>26</v>
@@ -5046,13 +5064,13 @@
         <v>2848</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -5061,13 +5079,13 @@
         <v>1995</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>313</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -5076,13 +5094,13 @@
         <v>4843</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>274</v>
+        <v>323</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>33</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5097,13 +5115,13 @@
         <v>111748</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="H8" s="7">
         <v>164</v>
@@ -5112,13 +5130,13 @@
         <v>101900</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>319</v>
+        <v>117</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="M8" s="7">
         <v>311</v>
@@ -5127,13 +5145,13 @@
         <v>213647</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>41</v>
+        <v>330</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>282</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5201,10 +5219,10 @@
         <v>4540</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>324</v>
@@ -5216,13 +5234,13 @@
         <v>1980</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -5231,13 +5249,13 @@
         <v>6520</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>91</v>
+        <v>337</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5252,13 +5270,13 @@
         <v>245646</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>331</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="H11" s="7">
         <v>277</v>
@@ -5267,13 +5285,13 @@
         <v>190372</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="M11" s="7">
         <v>614</v>
@@ -5282,13 +5300,13 @@
         <v>436018</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>100</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5362,7 +5380,7 @@
         <v>15</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -5371,13 +5389,13 @@
         <v>4462</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>339</v>
+        <v>70</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>341</v>
+        <v>253</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -5386,13 +5404,13 @@
         <v>4462</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5410,7 +5428,7 @@
         <v>24</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -5422,13 +5440,13 @@
         <v>163022</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>346</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>347</v>
+        <v>261</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="M14" s="7">
         <v>443</v>
@@ -5437,13 +5455,13 @@
         <v>336230</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5511,13 +5529,13 @@
         <v>4380</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -5526,13 +5544,13 @@
         <v>746</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
@@ -5541,13 +5559,13 @@
         <v>5126</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>151</v>
+        <v>359</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,13 +5580,13 @@
         <v>170636</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="H17" s="7">
         <v>239</v>
@@ -5577,10 +5595,10 @@
         <v>171197</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>24</v>
@@ -5592,13 +5610,13 @@
         <v>341832</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>161</v>
+        <v>365</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5666,13 +5684,13 @@
         <v>11768</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>70</v>
+        <v>370</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -5681,13 +5699,13 @@
         <v>9182</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>364</v>
+        <v>285</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="M19" s="7">
         <v>33</v>
@@ -5696,13 +5714,13 @@
         <v>20950</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>368</v>
+        <v>282</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>314</v>
+        <v>374</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5717,13 +5735,13 @@
         <v>713936</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="H20" s="7">
         <v>926</v>
@@ -5732,13 +5750,13 @@
         <v>643279</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>371</v>
+        <v>294</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="M20" s="7">
         <v>1885</v>
@@ -5747,13 +5765,13 @@
         <v>1357215</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>321</v>
+        <v>381</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>375</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5809,7 +5827,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP21-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP21-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33BC06D1-D5A6-4454-B0A1-1A5F58D265C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5134E990-3607-4B18-B259-D633B4CA4CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3E37E85D-B88C-4E2C-A550-108DE45A91EF}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D79B1D3A-F1DE-4CB7-AEA1-20C46206A1E3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="345">
   <si>
     <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,19 +68,889 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>12,86%</t>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
   </si>
   <si>
     <t>3,31%</t>
   </si>
   <si>
-    <t>30,5%</t>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2016 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -89,1102 +959,121 @@
     <t>0%</t>
   </si>
   <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>4,93%</t>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
   </si>
   <si>
     <t>2,66%</t>
   </si>
   <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
   </si>
   <si>
     <t>97,34%</t>
   </si>
   <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2012 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2016 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>Menores según si estuvo ingresado en un hospital en los últimos 12 meses en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
   </si>
 </sst>
 </file>
@@ -1596,8 +1485,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AB104C-4FE1-4995-A4E3-466BB5242159}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{443D4758-EB84-4E18-BAE9-9A446C13B9A8}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1714,10 +1603,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>3273</v>
+        <v>3860</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1729,10 +1618,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>5268</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1744,10 +1633,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N4" s="7">
-        <v>3273</v>
+        <v>9128</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1765,10 +1654,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>29</v>
+        <v>197</v>
       </c>
       <c r="D5" s="7">
-        <v>22171</v>
+        <v>134866</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1780,10 +1669,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>29</v>
+        <v>219</v>
       </c>
       <c r="I5" s="7">
-        <v>22724</v>
+        <v>147809</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1795,10 +1684,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>58</v>
+        <v>416</v>
       </c>
       <c r="N5" s="7">
-        <v>44895</v>
+        <v>282675</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1816,102 +1705,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="D6" s="7">
-        <v>25444</v>
+        <v>138726</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="I6" s="7">
-        <v>22724</v>
+        <v>153077</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>62</v>
+        <v>429</v>
       </c>
       <c r="N6" s="7">
-        <v>48168</v>
+        <v>291803</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D7" s="7">
-        <v>1995</v>
+        <v>11107</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="7">
+        <v>15</v>
+      </c>
+      <c r="I7" s="7">
+        <v>9739</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="7">
         <v>33</v>
       </c>
-      <c r="H7" s="7">
-        <v>6</v>
-      </c>
-      <c r="I7" s="7">
-        <v>3860</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" s="7">
-        <v>9</v>
-      </c>
       <c r="N7" s="7">
-        <v>5855</v>
+        <v>20846</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1920,49 +1809,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>190</v>
+        <v>294</v>
       </c>
       <c r="D8" s="7">
-        <v>125638</v>
+        <v>184056</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>168</v>
+        <v>307</v>
       </c>
       <c r="I8" s="7">
-        <v>112142</v>
+        <v>202403</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>358</v>
+        <v>601</v>
       </c>
       <c r="N8" s="7">
-        <v>237780</v>
+        <v>386459</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1971,99 +1860,99 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="D9" s="7">
-        <v>127633</v>
+        <v>195163</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>174</v>
+        <v>322</v>
       </c>
       <c r="I9" s="7">
-        <v>116002</v>
+        <v>212142</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>367</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>243635</v>
+        <v>407305</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>9739</v>
+        <v>6706</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I10" s="7">
-        <v>11107</v>
+        <v>7375</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="N10" s="7">
-        <v>20846</v>
+        <v>14080</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>58</v>
@@ -2075,10 +1964,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>307</v>
+        <v>218</v>
       </c>
       <c r="D11" s="7">
-        <v>202403</v>
+        <v>131111</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>59</v>
@@ -2090,10 +1979,10 @@
         <v>61</v>
       </c>
       <c r="H11" s="7">
-        <v>294</v>
+        <v>221</v>
       </c>
       <c r="I11" s="7">
-        <v>184056</v>
+        <v>142282</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>62</v>
@@ -2105,10 +1994,10 @@
         <v>64</v>
       </c>
       <c r="M11" s="7">
-        <v>601</v>
+        <v>439</v>
       </c>
       <c r="N11" s="7">
-        <v>386459</v>
+        <v>273394</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>65</v>
@@ -2117,7 +2006,7 @@
         <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2126,102 +2015,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>322</v>
+        <v>229</v>
       </c>
       <c r="D12" s="7">
-        <v>212142</v>
+        <v>137817</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="I12" s="7">
-        <v>195163</v>
+        <v>149657</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>461</v>
       </c>
       <c r="N12" s="7">
-        <v>407305</v>
+        <v>287474</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7">
-        <v>7375</v>
+        <v>3738</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>16</v>
+      </c>
+      <c r="I13" s="7">
+        <v>10771</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="7">
-        <v>11</v>
-      </c>
-      <c r="I13" s="7">
-        <v>6706</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>21</v>
+      </c>
+      <c r="N13" s="7">
+        <v>14510</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="M13" s="7">
-        <v>22</v>
-      </c>
-      <c r="N13" s="7">
-        <v>14080</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2230,49 +2119,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>221</v>
+        <v>269</v>
       </c>
       <c r="D14" s="7">
-        <v>142282</v>
+        <v>205577</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>290</v>
+      </c>
+      <c r="I14" s="7">
+        <v>197053</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="7">
-        <v>218</v>
-      </c>
-      <c r="I14" s="7">
-        <v>131111</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>559</v>
+      </c>
+      <c r="N14" s="7">
+        <v>402629</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="M14" s="7">
-        <v>439</v>
-      </c>
-      <c r="N14" s="7">
-        <v>273394</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2281,102 +2170,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="D15" s="7">
-        <v>149657</v>
+        <v>209315</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="I15" s="7">
-        <v>137817</v>
+        <v>207824</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N15" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D16" s="7">
-        <v>10771</v>
+        <v>25411</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>49</v>
+      </c>
+      <c r="I16" s="7">
+        <v>33154</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="7">
-        <v>5</v>
-      </c>
-      <c r="I16" s="7">
-        <v>3738</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>89</v>
+      </c>
+      <c r="N16" s="7">
+        <v>58565</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M16" s="7">
-        <v>21</v>
-      </c>
-      <c r="N16" s="7">
-        <v>14510</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2385,49 +2274,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>290</v>
+        <v>978</v>
       </c>
       <c r="D17" s="7">
-        <v>197053</v>
+        <v>655610</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1037</v>
+      </c>
+      <c r="I17" s="7">
+        <v>689546</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>2015</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1345156</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="P17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="H17" s="7">
-        <v>269</v>
-      </c>
-      <c r="I17" s="7">
-        <v>205577</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M17" s="7">
-        <v>559</v>
-      </c>
-      <c r="N17" s="7">
-        <v>402629</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2436,217 +2325,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>306</v>
+        <v>1018</v>
       </c>
       <c r="D18" s="7">
-        <v>207824</v>
+        <v>681021</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>274</v>
+        <v>1086</v>
       </c>
       <c r="I18" s="7">
-        <v>209315</v>
+        <v>722700</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>580</v>
+        <v>2104</v>
       </c>
       <c r="N18" s="7">
-        <v>417139</v>
+        <v>1403721</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>49</v>
-      </c>
-      <c r="D19" s="7">
-        <v>33154</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>40</v>
-      </c>
-      <c r="I19" s="7">
-        <v>25411</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="7">
-        <v>89</v>
-      </c>
-      <c r="N19" s="7">
-        <v>58565</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1037</v>
-      </c>
-      <c r="D20" s="7">
-        <v>689546</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" s="7">
-        <v>978</v>
-      </c>
-      <c r="I20" s="7">
-        <v>655610</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2015</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1345156</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D21" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I21" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>122</v>
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2659,8 +2392,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7383602-70E6-4D9B-97CC-5052E563899D}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{091FE0B3-62B4-415B-A447-725B17499BA4}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2676,7 +2409,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2777,49 +2510,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>2156</v>
+        <v>4114</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>6925</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M4" s="7">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="M4" s="7">
-        <v>2</v>
-      </c>
       <c r="N4" s="7">
-        <v>2156</v>
+        <v>11040</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,49 +2561,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>26</v>
+        <v>183</v>
       </c>
       <c r="D5" s="7">
-        <v>23299</v>
+        <v>135243</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="H5" s="7">
-        <v>26</v>
+        <v>202</v>
       </c>
       <c r="I5" s="7">
-        <v>22373</v>
+        <v>147759</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>116</v>
       </c>
       <c r="M5" s="7">
-        <v>52</v>
+        <v>385</v>
       </c>
       <c r="N5" s="7">
-        <v>45672</v>
+        <v>283001</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>24</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2879,102 +2612,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>28</v>
+        <v>189</v>
       </c>
       <c r="D6" s="7">
-        <v>25455</v>
+        <v>139357</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="I6" s="7">
-        <v>22373</v>
+        <v>154684</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>400</v>
       </c>
       <c r="N6" s="7">
-        <v>47828</v>
+        <v>294041</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="D7" s="7">
-        <v>4769</v>
+        <v>10501</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>4114</v>
+        <v>6628</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="M7" s="7">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="N7" s="7">
-        <v>8884</v>
+        <v>17129</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,49 +2716,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>176</v>
+        <v>303</v>
       </c>
       <c r="D8" s="7">
-        <v>124460</v>
+        <v>195857</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="H8" s="7">
-        <v>157</v>
+        <v>313</v>
       </c>
       <c r="I8" s="7">
-        <v>112870</v>
+        <v>216537</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="M8" s="7">
-        <v>333</v>
+        <v>616</v>
       </c>
       <c r="N8" s="7">
-        <v>237329</v>
+        <v>412394</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,102 +2767,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>183</v>
+        <v>319</v>
       </c>
       <c r="D9" s="7">
-        <v>129229</v>
+        <v>206358</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>163</v>
+        <v>323</v>
       </c>
       <c r="I9" s="7">
-        <v>116984</v>
+        <v>223165</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>346</v>
+        <v>642</v>
       </c>
       <c r="N9" s="7">
-        <v>246213</v>
+        <v>429523</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>6628</v>
+        <v>5868</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="H10" s="7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I10" s="7">
-        <v>10501</v>
+        <v>9776</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="M10" s="7">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N10" s="7">
-        <v>17129</v>
+        <v>15644</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,49 +2871,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>313</v>
+        <v>233</v>
       </c>
       <c r="D11" s="7">
-        <v>216537</v>
+        <v>149508</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H11" s="7">
-        <v>303</v>
+        <v>239</v>
       </c>
       <c r="I11" s="7">
-        <v>195857</v>
+        <v>155231</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="M11" s="7">
-        <v>616</v>
+        <v>472</v>
       </c>
       <c r="N11" s="7">
-        <v>412394</v>
+        <v>304739</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,102 +2922,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c r="D12" s="7">
-        <v>223165</v>
+        <v>155376</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>319</v>
+        <v>254</v>
       </c>
       <c r="I12" s="7">
-        <v>206358</v>
+        <v>165007</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>642</v>
+        <v>496</v>
       </c>
       <c r="N12" s="7">
-        <v>429523</v>
+        <v>320383</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>9776</v>
+        <v>8221</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>54</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I13" s="7">
-        <v>5868</v>
+        <v>9893</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
       </c>
       <c r="N13" s="7">
-        <v>15644</v>
+        <v>18114</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,49 +3026,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="D14" s="7">
-        <v>155231</v>
+        <v>202079</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="H14" s="7">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="I14" s="7">
-        <v>149508</v>
+        <v>197165</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="M14" s="7">
-        <v>472</v>
+        <v>532</v>
       </c>
       <c r="N14" s="7">
-        <v>304739</v>
+        <v>399244</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,102 +3077,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="D15" s="7">
-        <v>165007</v>
+        <v>210300</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="I15" s="7">
-        <v>155376</v>
+        <v>207058</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N15" s="7">
-        <v>320383</v>
+        <v>417358</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="D16" s="7">
-        <v>9893</v>
+        <v>28704</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="H16" s="7">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="I16" s="7">
-        <v>8221</v>
+        <v>33222</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="M16" s="7">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="N16" s="7">
-        <v>18114</v>
+        <v>61926</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>192</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3448,49 +3181,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>268</v>
+        <v>983</v>
       </c>
       <c r="D17" s="7">
-        <v>197165</v>
+        <v>682687</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H17" s="7">
-        <v>264</v>
+        <v>1022</v>
       </c>
       <c r="I17" s="7">
-        <v>202079</v>
+        <v>716692</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="M17" s="7">
-        <v>532</v>
+        <v>2005</v>
       </c>
       <c r="N17" s="7">
-        <v>399244</v>
+        <v>1399379</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>200</v>
+        <v>133</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,217 +3232,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>281</v>
+        <v>1025</v>
       </c>
       <c r="D18" s="7">
-        <v>207058</v>
+        <v>711391</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>275</v>
+        <v>1069</v>
       </c>
       <c r="I18" s="7">
-        <v>210300</v>
+        <v>749914</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>556</v>
+        <v>2094</v>
       </c>
       <c r="N18" s="7">
-        <v>417358</v>
+        <v>1461305</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>47</v>
-      </c>
-      <c r="D19" s="7">
-        <v>33222</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="H19" s="7">
-        <v>42</v>
-      </c>
-      <c r="I19" s="7">
-        <v>28704</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="M19" s="7">
-        <v>89</v>
-      </c>
-      <c r="N19" s="7">
-        <v>61926</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1022</v>
-      </c>
-      <c r="D20" s="7">
-        <v>716692</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H20" s="7">
-        <v>983</v>
-      </c>
-      <c r="I20" s="7">
-        <v>682687</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2005</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1399379</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1069</v>
-      </c>
-      <c r="D21" s="7">
-        <v>749914</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1025</v>
-      </c>
-      <c r="I21" s="7">
-        <v>711391</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2094</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1461305</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>122</v>
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3722,8 +3299,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021A34E5-D127-472C-ACB3-3C61E94ECE56}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC66A06-5773-4D7B-B6A1-53031356E7D0}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3739,7 +3316,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3840,49 +3417,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>1047</v>
+        <v>3952</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>6752</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="M4" s="7">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="M4" s="7">
-        <v>1</v>
-      </c>
       <c r="N4" s="7">
-        <v>1047</v>
+        <v>10704</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>198</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,49 +3468,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>29</v>
+        <v>181</v>
       </c>
       <c r="D5" s="7">
-        <v>24527</v>
+        <v>129755</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>24</v>
+        <v>202</v>
       </c>
       <c r="H5" s="7">
-        <v>24</v>
+        <v>186</v>
       </c>
       <c r="I5" s="7">
-        <v>22527</v>
+        <v>141324</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>24</v>
+        <v>203</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>205</v>
       </c>
       <c r="M5" s="7">
-        <v>53</v>
+        <v>367</v>
       </c>
       <c r="N5" s="7">
-        <v>47054</v>
+        <v>271079</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>24</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,102 +3519,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>25574</v>
+        <v>133707</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="I6" s="7">
-        <v>22527</v>
+        <v>148076</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>382</v>
       </c>
       <c r="N6" s="7">
-        <v>48101</v>
+        <v>281783</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7">
-        <v>5705</v>
+        <v>9088</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>231</v>
+        <v>158</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7">
-        <v>3952</v>
+        <v>5991</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>234</v>
+        <v>159</v>
       </c>
       <c r="M7" s="7">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N7" s="7">
-        <v>9657</v>
+        <v>15079</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,49 +3623,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>157</v>
+        <v>318</v>
       </c>
       <c r="D8" s="7">
-        <v>116797</v>
+        <v>197623</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>238</v>
+        <v>166</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="H8" s="7">
-        <v>157</v>
+        <v>323</v>
       </c>
       <c r="I8" s="7">
-        <v>107228</v>
+        <v>218368</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="M8" s="7">
-        <v>314</v>
+        <v>641</v>
       </c>
       <c r="N8" s="7">
-        <v>224025</v>
+        <v>415991</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,102 +3674,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>165</v>
+        <v>333</v>
       </c>
       <c r="D9" s="7">
-        <v>122502</v>
+        <v>206711</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>163</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>111180</v>
+        <v>224359</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>328</v>
+        <v>665</v>
       </c>
       <c r="N9" s="7">
-        <v>233682</v>
+        <v>431070</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>5</v>
+      </c>
+      <c r="D10" s="7">
+        <v>3024</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="H10" s="7">
+        <v>4</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2965</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="M10" s="7">
         <v>9</v>
       </c>
-      <c r="D10" s="7">
-        <v>5991</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="H10" s="7">
-        <v>15</v>
-      </c>
-      <c r="I10" s="7">
-        <v>9088</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="M10" s="7">
-        <v>24</v>
-      </c>
       <c r="N10" s="7">
-        <v>15079</v>
+        <v>5988</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>253</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,49 +3778,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>323</v>
+        <v>254</v>
       </c>
       <c r="D11" s="7">
-        <v>218368</v>
+        <v>152973</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="H11" s="7">
-        <v>318</v>
+        <v>244</v>
       </c>
       <c r="I11" s="7">
-        <v>197623</v>
+        <v>163708</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="M11" s="7">
-        <v>641</v>
+        <v>498</v>
       </c>
       <c r="N11" s="7">
-        <v>415991</v>
+        <v>316682</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>261</v>
+        <v>24</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>262</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,102 +3829,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="D12" s="7">
-        <v>224359</v>
+        <v>155997</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>333</v>
+        <v>248</v>
       </c>
       <c r="I12" s="7">
-        <v>206711</v>
+        <v>166673</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>665</v>
+        <v>507</v>
       </c>
       <c r="N12" s="7">
-        <v>431070</v>
+        <v>322670</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>2965</v>
+        <v>5165</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>265</v>
+        <v>239</v>
       </c>
       <c r="H13" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>3024</v>
+        <v>4990</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>268</v>
+        <v>223</v>
       </c>
       <c r="M13" s="7">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="N13" s="7">
-        <v>5988</v>
+        <v>10155</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>135</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,49 +3933,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="D14" s="7">
-        <v>163708</v>
+        <v>201568</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>271</v>
+        <v>245</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>272</v>
+        <v>246</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>273</v>
+        <v>247</v>
       </c>
       <c r="H14" s="7">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="I14" s="7">
-        <v>152973</v>
+        <v>200746</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>275</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="M14" s="7">
-        <v>498</v>
+        <v>556</v>
       </c>
       <c r="N14" s="7">
-        <v>316682</v>
+        <v>402314</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>144</v>
+        <v>251</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,102 +3984,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="D15" s="7">
-        <v>166673</v>
+        <v>206733</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="I15" s="7">
-        <v>155997</v>
+        <v>205736</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>507</v>
+        <v>570</v>
       </c>
       <c r="N15" s="7">
-        <v>322670</v>
+        <v>412469</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D16" s="7">
-        <v>4990</v>
+        <v>21228</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>75</v>
+        <v>255</v>
       </c>
       <c r="H16" s="7">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="I16" s="7">
-        <v>5165</v>
+        <v>20697</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="M16" s="7">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="N16" s="7">
-        <v>10155</v>
+        <v>41925</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>284</v>
+        <v>175</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4511,49 +4088,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>283</v>
+        <v>1026</v>
       </c>
       <c r="D17" s="7">
-        <v>200746</v>
+        <v>681920</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>84</v>
+        <v>261</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="H17" s="7">
-        <v>273</v>
+        <v>1036</v>
       </c>
       <c r="I17" s="7">
-        <v>201568</v>
+        <v>724147</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>289</v>
+        <v>21</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="M17" s="7">
-        <v>556</v>
+        <v>2062</v>
       </c>
       <c r="N17" s="7">
-        <v>402314</v>
+        <v>1406067</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>292</v>
+        <v>184</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,217 +4139,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>290</v>
+        <v>1059</v>
       </c>
       <c r="D18" s="7">
-        <v>205736</v>
+        <v>703148</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>280</v>
+        <v>1065</v>
       </c>
       <c r="I18" s="7">
-        <v>206733</v>
+        <v>744844</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>570</v>
+        <v>2124</v>
       </c>
       <c r="N18" s="7">
-        <v>412469</v>
+        <v>1447992</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>29</v>
-      </c>
-      <c r="D19" s="7">
-        <v>20697</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="H19" s="7">
-        <v>33</v>
-      </c>
-      <c r="I19" s="7">
-        <v>21228</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="M19" s="7">
-        <v>62</v>
-      </c>
-      <c r="N19" s="7">
-        <v>41925</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1036</v>
-      </c>
-      <c r="D20" s="7">
-        <v>724147</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1026</v>
-      </c>
-      <c r="I20" s="7">
-        <v>681920</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2062</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1406067</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D21" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1059</v>
-      </c>
-      <c r="I21" s="7">
-        <v>703148</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2124</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1447992</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>122</v>
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4785,8 +4206,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F9C7FE-5F02-44E0-B45D-6572564B9CEB}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{166C8894-DA76-47E0-93B3-36FBBE1E4287}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4802,7 +4223,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>267</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4903,49 +4324,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1993</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>268</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>15</v>
+        <v>269</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>3122</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>258</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>15</v>
+        <v>271</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>5115</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>273</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>15</v>
+        <v>274</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4954,49 +4375,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="D5" s="7">
-        <v>12698</v>
+        <v>115287</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>24</v>
+        <v>276</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>315</v>
+        <v>277</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>26</v>
+        <v>278</v>
       </c>
       <c r="H5" s="7">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="I5" s="7">
-        <v>16787</v>
+        <v>137290</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>24</v>
+        <v>266</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>316</v>
+        <v>279</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>280</v>
       </c>
       <c r="M5" s="7">
-        <v>47</v>
+        <v>358</v>
       </c>
       <c r="N5" s="7">
-        <v>29485</v>
+        <v>252578</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>281</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>26</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5005,102 +4426,102 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="D6" s="7">
-        <v>12698</v>
+        <v>117280</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="I6" s="7">
-        <v>16787</v>
+        <v>140412</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>47</v>
+        <v>367</v>
       </c>
       <c r="N6" s="7">
-        <v>29485</v>
+        <v>257693</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>2848</v>
+        <v>1947</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="H7" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>1995</v>
+        <v>4775</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>321</v>
+        <v>287</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>289</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
       </c>
       <c r="N7" s="7">
-        <v>4843</v>
+        <v>6722</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>324</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5109,49 +4530,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>147</v>
+        <v>277</v>
       </c>
       <c r="D8" s="7">
-        <v>111748</v>
+        <v>188565</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>326</v>
+        <v>294</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>327</v>
+        <v>295</v>
       </c>
       <c r="H8" s="7">
-        <v>164</v>
+        <v>337</v>
       </c>
       <c r="I8" s="7">
-        <v>101900</v>
+        <v>250260</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>117</v>
+        <v>297</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="M8" s="7">
-        <v>311</v>
+        <v>614</v>
       </c>
       <c r="N8" s="7">
-        <v>213647</v>
+        <v>438826</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>331</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,102 +4581,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>152</v>
+        <v>280</v>
       </c>
       <c r="D9" s="7">
-        <v>114596</v>
+        <v>190512</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>168</v>
+        <v>343</v>
       </c>
       <c r="I9" s="7">
-        <v>103895</v>
+        <v>255035</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>320</v>
+        <v>623</v>
       </c>
       <c r="N9" s="7">
-        <v>218490</v>
+        <v>445548</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>4540</v>
+        <v>4536</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>324</v>
+        <v>54</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>1980</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>335</v>
+        <v>306</v>
       </c>
       <c r="M10" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>6520</v>
+        <v>4536</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>336</v>
+        <v>307</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>337</v>
+        <v>308</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>338</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5264,49 +4685,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>337</v>
+        <v>218</v>
       </c>
       <c r="D11" s="7">
-        <v>245646</v>
+        <v>184633</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>339</v>
+        <v>310</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>330</v>
+        <v>62</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>340</v>
+        <v>311</v>
       </c>
       <c r="H11" s="7">
-        <v>277</v>
+        <v>225</v>
       </c>
       <c r="I11" s="7">
-        <v>190372</v>
+        <v>185286</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>342</v>
+        <v>30</v>
       </c>
       <c r="M11" s="7">
-        <v>614</v>
+        <v>443</v>
       </c>
       <c r="N11" s="7">
-        <v>436018</v>
+        <v>369919</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>343</v>
+        <v>314</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5315,102 +4736,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>343</v>
+        <v>225</v>
       </c>
       <c r="D12" s="7">
-        <v>250186</v>
+        <v>189169</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="I12" s="7">
-        <v>192352</v>
+        <v>185286</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>623</v>
+        <v>450</v>
       </c>
       <c r="N12" s="7">
-        <v>442538</v>
+        <v>374455</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>739</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>14</v>
+        <v>317</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>15</v>
+        <v>304</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>346</v>
+        <v>256</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>4462</v>
+        <v>4563</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>318</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>253</v>
+        <v>320</v>
       </c>
       <c r="M13" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N13" s="7">
-        <v>4462</v>
+        <v>5302</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5419,49 +4840,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="D14" s="7">
-        <v>173208</v>
+        <v>167223</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>24</v>
+        <v>324</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>351</v>
+        <v>264</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>26</v>
+        <v>312</v>
       </c>
       <c r="H14" s="7">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="I14" s="7">
-        <v>163022</v>
+        <v>176675</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>325</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>261</v>
+        <v>326</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
       <c r="M14" s="7">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="N14" s="7">
-        <v>336230</v>
+        <v>343899</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5470,102 +4891,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="D15" s="7">
-        <v>173208</v>
+        <v>167962</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="I15" s="7">
-        <v>167484</v>
+        <v>181238</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="N15" s="7">
-        <v>340692</v>
+        <v>349201</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D16" s="7">
-        <v>4380</v>
+        <v>9215</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>96</v>
+        <v>333</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="I16" s="7">
-        <v>746</v>
+        <v>12461</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="M16" s="7">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="N16" s="7">
-        <v>5126</v>
+        <v>21675</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>359</v>
+        <v>321</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5574,49 +4995,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>231</v>
+        <v>926</v>
       </c>
       <c r="D17" s="7">
-        <v>170636</v>
+        <v>655709</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>104</v>
+        <v>339</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="H17" s="7">
-        <v>239</v>
+        <v>959</v>
       </c>
       <c r="I17" s="7">
-        <v>171197</v>
+        <v>749511</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>363</v>
+        <v>341</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="M17" s="7">
-        <v>470</v>
+        <v>1885</v>
       </c>
       <c r="N17" s="7">
-        <v>341832</v>
+        <v>1405221</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>365</v>
+        <v>328</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5625,217 +5046,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>238</v>
+        <v>941</v>
       </c>
       <c r="D18" s="7">
-        <v>175016</v>
+        <v>664924</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>240</v>
+        <v>977</v>
       </c>
       <c r="I18" s="7">
-        <v>171943</v>
+        <v>761972</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>478</v>
+        <v>1918</v>
       </c>
       <c r="N18" s="7">
-        <v>346958</v>
+        <v>1426896</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>18</v>
-      </c>
-      <c r="D19" s="7">
-        <v>11768</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="H19" s="7">
-        <v>15</v>
-      </c>
-      <c r="I19" s="7">
-        <v>9182</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="M19" s="7">
-        <v>33</v>
-      </c>
-      <c r="N19" s="7">
-        <v>20950</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>959</v>
-      </c>
-      <c r="D20" s="7">
-        <v>713936</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="H20" s="7">
-        <v>926</v>
-      </c>
-      <c r="I20" s="7">
-        <v>643279</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1885</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1357215</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>977</v>
-      </c>
-      <c r="D21" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="7">
-        <v>941</v>
-      </c>
-      <c r="I21" s="7">
-        <v>652461</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1918</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1378165</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>122</v>
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
